--- a/bin/print/ori/DaySaleReport.xlsx
+++ b/bin/print/ori/DaySaleReport.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Summary" localSheetId="0">Sheet1!$A$1:$R$37</definedName>
+    <definedName name="Summary" localSheetId="0">Sheet1!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1162,132 +1162,756 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
       <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
       <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
       <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
       <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
       <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
       <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
       <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
       <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
       <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
       <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
       <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
       <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
       <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
       <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
       <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
       <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
       <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
       <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="7"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
       <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="7"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
       <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="7"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
       <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="7"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
       <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="7"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
       <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
       <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="7"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
       <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="7"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
       <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
       <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
       <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
       <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="7"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
       <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="7"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
       <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="7"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
       <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
       <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="7"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
       <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="7"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
